--- a/normalisasi .xlsx
+++ b/normalisasi .xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="79">
   <si>
     <t>transaksi-detail</t>
   </si>
@@ -34,130 +34,136 @@
     <t>subtotal</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
+    <t>transaksi</t>
+  </si>
+  <si>
+    <t>T001</t>
+  </si>
+  <si>
+    <t>B001</t>
+  </si>
+  <si>
+    <t>id_transaksi (PK)</t>
+  </si>
+  <si>
+    <t>tgl_transaksi</t>
+  </si>
+  <si>
+    <t>id_kasir (FK)</t>
+  </si>
+  <si>
+    <t>id_pelanggan (FK)</t>
+  </si>
+  <si>
+    <t>total_harga</t>
+  </si>
+  <si>
+    <t>B002</t>
+  </si>
+  <si>
+    <t>K001</t>
+  </si>
+  <si>
+    <t>P001</t>
+  </si>
+  <si>
+    <t>T002</t>
+  </si>
+  <si>
+    <t>K002</t>
+  </si>
+  <si>
+    <t>P002</t>
+  </si>
+  <si>
+    <t>B003</t>
+  </si>
+  <si>
+    <t>kasir</t>
+  </si>
+  <si>
+    <t>barang</t>
+  </si>
+  <si>
+    <t>id_kasir (PK)</t>
+  </si>
+  <si>
+    <t>nama_kasir</t>
+  </si>
+  <si>
+    <t>shift</t>
+  </si>
+  <si>
+    <t>notelp_kasir</t>
+  </si>
+  <si>
+    <t>alamat_kasir</t>
+  </si>
+  <si>
+    <t>id_barang (PK)</t>
+  </si>
+  <si>
+    <t>nama_barang</t>
+  </si>
+  <si>
+    <t>jenis_barang</t>
+  </si>
+  <si>
+    <t>harga</t>
+  </si>
+  <si>
+    <t>stok</t>
+  </si>
+  <si>
     <t>id_supplier (FK)</t>
   </si>
   <si>
-    <t>transaksi</t>
-  </si>
-  <si>
-    <t>T001</t>
-  </si>
-  <si>
-    <t>B001</t>
+    <t>Andi Saputra</t>
+  </si>
+  <si>
+    <t>'0812345678</t>
+  </si>
+  <si>
+    <t>Bantul</t>
+  </si>
+  <si>
+    <t>rinso</t>
+  </si>
+  <si>
+    <t>sabun</t>
   </si>
   <si>
     <t>S001</t>
   </si>
   <si>
-    <t>id_transaksi (PK)</t>
-  </si>
-  <si>
-    <t>tgl_transaksi</t>
-  </si>
-  <si>
-    <t>id_kasir (FK)</t>
-  </si>
-  <si>
-    <t>id_pelanggan (FK)</t>
-  </si>
-  <si>
-    <t>total_harga</t>
-  </si>
-  <si>
-    <t>B002</t>
+    <t>fufa</t>
+  </si>
+  <si>
+    <t>032992384</t>
+  </si>
+  <si>
+    <t>bantul</t>
+  </si>
+  <si>
+    <t>chitos</t>
+  </si>
+  <si>
+    <t>snack</t>
   </si>
   <si>
     <t>S002</t>
   </si>
   <si>
-    <t>K001</t>
-  </si>
-  <si>
-    <t>P001</t>
-  </si>
-  <si>
-    <t>T002</t>
-  </si>
-  <si>
-    <t>K002</t>
-  </si>
-  <si>
-    <t>P002</t>
-  </si>
-  <si>
-    <t>B003</t>
+    <t>indomie</t>
+  </si>
+  <si>
+    <t>mie</t>
   </si>
   <si>
     <t>S003</t>
-  </si>
-  <si>
-    <t>kasir</t>
-  </si>
-  <si>
-    <t>barang</t>
-  </si>
-  <si>
-    <t>id_kasir (PK)</t>
-  </si>
-  <si>
-    <t>nama_kasir</t>
-  </si>
-  <si>
-    <t>shift</t>
-  </si>
-  <si>
-    <t>notelp_kasir</t>
-  </si>
-  <si>
-    <t>alamat_kasir</t>
-  </si>
-  <si>
-    <t>id_barang (PK)</t>
-  </si>
-  <si>
-    <t>nama_barang</t>
-  </si>
-  <si>
-    <t>jenis_barang</t>
-  </si>
-  <si>
-    <t>harga</t>
-  </si>
-  <si>
-    <t>stok</t>
-  </si>
-  <si>
-    <t>Andi Saputra</t>
-  </si>
-  <si>
-    <t>Bantul</t>
-  </si>
-  <si>
-    <t>rinso</t>
-  </si>
-  <si>
-    <t>sabun</t>
-  </si>
-  <si>
-    <t>fufa</t>
-  </si>
-  <si>
-    <t>032992384</t>
-  </si>
-  <si>
-    <t>bantul</t>
-  </si>
-  <si>
-    <t>chitos</t>
-  </si>
-  <si>
-    <t>snack</t>
-  </si>
-  <si>
-    <t>indomie</t>
-  </si>
-  <si>
-    <t>mie</t>
   </si>
   <si>
     <t>pelanggan</t>
@@ -330,7 +336,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -356,6 +362,9 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -365,11 +374,17 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -390,6 +405,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -700,25 +718,25 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="18" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="15" width="15.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="15" width="17.005" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="15" width="15.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="18" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="21" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="18" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="20" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="19" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="18" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="18" width="15.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="18" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="18" width="17.005" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="18" width="15.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="18" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="18" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="18" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="20" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="20" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="20" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="20" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="18" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="18" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -765,46 +783,46 @@
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>11</v>
+        <v>76</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>10</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E3" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="L3" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="M3" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>33</v>
-      </c>
       <c r="N3" s="8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="O3" s="8" t="s">
         <v>3</v>
@@ -813,107 +831,107 @@
         <v>4</v>
       </c>
       <c r="Q3" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R3" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="S3" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="11">
         <v>45610</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="12">
+        <v>1</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="11">
-        <v>1</v>
-      </c>
-      <c r="E4" s="11">
-        <v>8123456789</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>37</v>
-      </c>
       <c r="G4" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K4" s="5" t="s">
         <v>8</v>
       </c>
       <c r="L4" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="M4" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="M4" s="5" t="s">
+      <c r="N4" s="12">
+        <v>10000</v>
+      </c>
+      <c r="O4" s="12">
+        <v>2</v>
+      </c>
+      <c r="P4" s="12">
+        <v>20000</v>
+      </c>
+      <c r="Q4" s="12">
+        <v>35000</v>
+      </c>
+      <c r="R4" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="N4" s="11">
-        <v>10000</v>
-      </c>
-      <c r="O4" s="11">
-        <v>2</v>
-      </c>
-      <c r="P4" s="11">
-        <v>20000</v>
-      </c>
-      <c r="Q4" s="11">
-        <v>35000</v>
-      </c>
-      <c r="R4" s="5" t="s">
-        <v>9</v>
-      </c>
       <c r="S4" s="5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="11">
         <v>45610</v>
       </c>
       <c r="C5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="12">
+        <v>1</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="11">
-        <v>1</v>
-      </c>
-      <c r="E5" s="11">
-        <v>8123456789</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>37</v>
-      </c>
       <c r="G5" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>43</v>
@@ -921,36 +939,36 @@
       <c r="M5" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="N5" s="11">
+      <c r="N5" s="12">
         <v>5000</v>
       </c>
-      <c r="O5" s="11">
+      <c r="O5" s="12">
         <v>3</v>
       </c>
-      <c r="P5" s="11">
+      <c r="P5" s="12">
         <v>15000</v>
       </c>
-      <c r="Q5" s="11">
+      <c r="Q5" s="12">
         <v>35000</v>
       </c>
       <c r="R5" s="5" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="S5" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="10">
+        <v>17</v>
+      </c>
+      <c r="B6" s="11">
         <v>45612</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="12">
         <v>2</v>
       </c>
       <c r="E6" s="6" t="s">
@@ -960,56 +978,56 @@
         <v>42</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K6" s="5" t="s">
         <v>8</v>
       </c>
       <c r="L6" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="M6" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="M6" s="5" t="s">
+      <c r="N6" s="12">
+        <v>10000</v>
+      </c>
+      <c r="O6" s="12">
+        <v>1</v>
+      </c>
+      <c r="P6" s="12">
+        <v>10000</v>
+      </c>
+      <c r="Q6" s="12">
+        <v>19000</v>
+      </c>
+      <c r="R6" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="N6" s="11">
-        <v>10000</v>
-      </c>
-      <c r="O6" s="11">
-        <v>1</v>
-      </c>
-      <c r="P6" s="11">
-        <v>10000</v>
-      </c>
-      <c r="Q6" s="11">
-        <v>19000</v>
-      </c>
-      <c r="R6" s="5" t="s">
-        <v>9</v>
-      </c>
       <c r="S6" s="5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="10">
+        <v>17</v>
+      </c>
+      <c r="B7" s="11">
         <v>45612</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="12">
         <v>2</v>
       </c>
       <c r="E7" s="6" t="s">
@@ -1019,43 +1037,43 @@
         <v>42</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="N7" s="11">
+        <v>47</v>
+      </c>
+      <c r="N7" s="12">
         <v>3000</v>
       </c>
-      <c r="O7" s="11">
+      <c r="O7" s="12">
         <v>3</v>
       </c>
-      <c r="P7" s="11">
+      <c r="P7" s="12">
         <v>9000</v>
       </c>
-      <c r="Q7" s="11">
+      <c r="Q7" s="12">
         <v>19000</v>
       </c>
       <c r="R7" s="5" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="S7" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1074,25 +1092,25 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="15" width="17.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="18" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="18" width="17.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="21" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="18" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="19" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="20" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="20" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="20" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="18" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="18" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="18" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="19" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="18" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="18" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="18" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="18" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="18" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="18" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="18" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="18" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -1141,79 +1159,79 @@
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>11</v>
-      </c>
       <c r="C3" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="9"/>
-      <c r="S3" s="9"/>
+        <v>13</v>
+      </c>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="11">
         <v>45610</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="11">
+        <v>34</v>
+      </c>
+      <c r="D4" s="12">
         <v>1</v>
       </c>
       <c r="E4" s="6">
         <v>8123456789</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="K4" s="11">
+        <v>59</v>
+      </c>
+      <c r="K4" s="12">
         <v>35000</v>
       </c>
       <c r="L4" s="1"/>
@@ -1227,15 +1245,15 @@
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="19">
+        <v>17</v>
+      </c>
+      <c r="B5" s="22">
         <v>45612</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="12">
         <v>2</v>
       </c>
       <c r="E5" s="6" t="s">
@@ -1245,18 +1263,18 @@
         <v>42</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="K5" s="20">
+        <v>67</v>
+      </c>
+      <c r="K5" s="23">
         <v>19000</v>
       </c>
       <c r="L5" s="1"/>
@@ -1270,7 +1288,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="1"/>
-      <c r="B6" s="10"/>
+      <c r="B6" s="11"/>
       <c r="C6" s="1"/>
       <c r="D6" s="2"/>
       <c r="E6" s="3"/>
@@ -1279,7 +1297,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
-      <c r="K6" s="11"/>
+      <c r="K6" s="12"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
@@ -1291,7 +1309,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="1"/>
-      <c r="B7" s="10"/>
+      <c r="B7" s="11"/>
       <c r="C7" s="1"/>
       <c r="D7" s="2"/>
       <c r="E7" s="3"/>
@@ -1300,7 +1318,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
-      <c r="K7" s="11"/>
+      <c r="K7" s="12"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
@@ -1379,17 +1397,17 @@
       <c r="A11" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="12" t="s">
-        <v>75</v>
+      <c r="B11" s="14" t="s">
+        <v>77</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F11" s="8" t="s">
         <v>3</v>
@@ -1398,10 +1416,10 @@
         <v>4</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="2"/>
@@ -1418,29 +1436,29 @@
       <c r="A12" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="11" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="E12" s="12">
+        <v>10000</v>
+      </c>
+      <c r="F12" s="12">
+        <v>2</v>
+      </c>
+      <c r="G12" s="12">
+        <v>20000</v>
+      </c>
+      <c r="H12" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="11">
-        <v>10000</v>
-      </c>
-      <c r="F12" s="11">
-        <v>2</v>
-      </c>
-      <c r="G12" s="11">
-        <v>20000</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>9</v>
-      </c>
       <c r="I12" s="5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="2"/>
@@ -1457,8 +1475,8 @@
       <c r="A13" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="10" t="s">
-        <v>15</v>
+      <c r="B13" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>43</v>
@@ -1466,20 +1484,20 @@
       <c r="D13" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="12">
         <v>5000</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="12">
         <v>3</v>
       </c>
-      <c r="G13" s="11">
+      <c r="G13" s="12">
         <v>15000</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="2"/>
@@ -1494,31 +1512,31 @@
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
       <c r="A14" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="11" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="E14" s="12">
+        <v>10000</v>
+      </c>
+      <c r="F14" s="12">
+        <v>1</v>
+      </c>
+      <c r="G14" s="12">
+        <v>10000</v>
+      </c>
+      <c r="H14" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="11">
-        <v>10000</v>
-      </c>
-      <c r="F14" s="11">
-        <v>1</v>
-      </c>
-      <c r="G14" s="11">
-        <v>10000</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>9</v>
-      </c>
       <c r="I14" s="5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J14" s="1"/>
       <c r="K14" s="2"/>
@@ -1533,31 +1551,31 @@
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
       <c r="A15" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>22</v>
+        <v>17</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>20</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E15" s="11">
+        <v>47</v>
+      </c>
+      <c r="E15" s="12">
         <v>3000</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="12">
         <v>3</v>
       </c>
-      <c r="G15" s="11">
+      <c r="G15" s="12">
         <v>9000</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="2"/>
@@ -1580,32 +1598,33 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:T22"/>
+  <dimension ref="A1:U22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="15" width="18.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="18" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="15" width="11.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="16" width="5.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="15" width="15.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="15" width="17.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="15" width="16.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="18" width="17.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="18" width="15.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="19" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="20" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="19" width="16.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="18" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="18" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="18" width="12.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="21" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="18" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="19" width="5.576428571428571" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="18" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="18" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="18" width="17.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="18" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="18" width="17.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="18" width="18.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="19" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="18" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="18" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="18" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -1616,19 +1635,20 @@
       <c r="E1" s="2"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="2"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="2"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="5" t="s">
@@ -1638,21 +1658,22 @@
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="5"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="6"/>
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="6"/>
       <c r="S2" s="5"/>
       <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="7" t="s">
@@ -1667,26 +1688,27 @@
       <c r="D3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="9"/>
-      <c r="G3" s="5" t="s">
+      <c r="F3" s="1"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="10"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="5"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="6"/>
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="9"/>
-      <c r="S3" s="9"/>
-      <c r="T3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="5" t="s">
@@ -1701,53 +1723,54 @@
       <c r="D4" s="6">
         <v>20000</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>29</v>
+      <c r="E4" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="N4" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q4" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="R4" s="5"/>
+        <v>53</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="R4" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="S4" s="5"/>
-      <c r="T4" s="13"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" s="6">
         <v>3</v>
@@ -1755,48 +1778,51 @@
       <c r="D5" s="6">
         <v>15000</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5" t="s">
+      <c r="E5" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="10">
+      <c r="I5" s="11">
         <v>45610</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="J5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" s="6">
+        <v>1</v>
+      </c>
+      <c r="L5" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="M5" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="J5" s="6">
-        <v>1</v>
-      </c>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>54</v>
-      </c>
       <c r="N5" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q5" s="6">
+        <v>58</v>
+      </c>
+      <c r="Q5" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="R5" s="6">
         <v>35000</v>
       </c>
-      <c r="R5" s="5"/>
       <c r="S5" s="5"/>
-      <c r="T5" s="13"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>8</v>
@@ -1807,53 +1833,54 @@
       <c r="D6" s="6">
         <v>10000</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="10">
+      <c r="E6" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="11">
         <v>45612</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="J6" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="J6" s="6">
+      <c r="K6" s="6">
         <v>2</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="L6" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="L6" s="5" t="s">
+      <c r="M6" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="M6" s="5" t="s">
-        <v>62</v>
-      </c>
       <c r="N6" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q6" s="6">
+        <v>66</v>
+      </c>
+      <c r="Q6" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="R6" s="6">
         <v>19000</v>
       </c>
-      <c r="R6" s="1"/>
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C7" s="6">
         <v>3</v>
@@ -1861,46 +1888,48 @@
       <c r="D7" s="6">
         <v>9000</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="1"/>
+      <c r="E7" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="2"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="2"/>
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="5"/>
-      <c r="B8" s="10"/>
+      <c r="B8" s="11"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="2"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="2"/>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="5"/>
@@ -1908,113 +1937,125 @@
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="2"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="2"/>
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="2"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="2"/>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="E11" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="F11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="1"/>
+      <c r="G11" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="2"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="2"/>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="D12" s="12">
+        <v>10000</v>
+      </c>
+      <c r="E12" s="12">
+        <v>100</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="11">
-        <v>10000</v>
-      </c>
-      <c r="E12" s="11">
-        <v>100</v>
-      </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="1"/>
+      <c r="G12" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="H12" s="1"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="2"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="2"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>43</v>
@@ -2022,107 +2063,121 @@
       <c r="C13" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="12">
         <v>5000</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="12">
         <v>200</v>
       </c>
-      <c r="F13" s="5"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="1"/>
+      <c r="F13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="H13" s="1"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="2"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="2"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
       <c r="A14" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="11">
+        <v>47</v>
+      </c>
+      <c r="D14" s="12">
         <v>3000</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="12">
         <v>300</v>
       </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="1"/>
+      <c r="F14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="H14" s="1"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="2"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="2"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
       <c r="A15" s="1"/>
       <c r="B15" s="5"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="H15" s="1"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="2"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="2"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
       <c r="A16" s="1"/>
       <c r="B16" s="5"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
       <c r="E16" s="6"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="2"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="2"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
       <c r="A17" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="2"/>
@@ -2130,59 +2185,61 @@
       <c r="E17" s="2"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="2"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="2"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
       <c r="A18" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="2"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="2"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
       <c r="A19" s="5" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>42</v>
@@ -2190,101 +2247,105 @@
       <c r="E19" s="2"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="2"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="2"/>
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
       <c r="A20" s="5" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="D20" s="14" t="s">
         <v>70</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>72</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="2"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
-      <c r="Q20" s="2"/>
-      <c r="R20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="2"/>
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
       <c r="A21" s="5" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="2"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
-      <c r="Q21" s="2"/>
-      <c r="R21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="2"/>
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
       <c r="A22" s="1"/>
       <c r="B22" s="5"/>
       <c r="C22" s="6"/>
-      <c r="D22" s="11"/>
+      <c r="D22" s="12"/>
       <c r="E22" s="2"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="2"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
-      <c r="Q22" s="2"/>
-      <c r="R22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="2"/>
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2296,32 +2357,33 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:T22"/>
+  <dimension ref="A1:U22"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="15" width="18.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="15" width="17.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="17" width="17.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="16" width="15.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="18" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="16" width="15.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="18" width="18.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="18" width="17.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="19" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="20" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="19" width="15.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="18" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="18" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="18" width="18.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="21" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="19" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="18" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="19" width="15.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="18" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="18" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="18" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="18" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="18" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="18" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="18" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="18" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="18" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -2332,11 +2394,11 @@
       <c r="E1" s="2"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="2"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
@@ -2345,6 +2407,7 @@
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="5" t="s">
@@ -2354,13 +2417,13 @@
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="5"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="6"/>
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
@@ -2369,6 +2432,7 @@
       <c r="R2" s="5"/>
       <c r="S2" s="5"/>
       <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="7" t="s">
@@ -2383,26 +2447,27 @@
       <c r="D3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="9"/>
-      <c r="G3" s="5" t="s">
+      <c r="F3" s="1"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="10"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="5"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="6"/>
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
-      <c r="R3" s="9"/>
-      <c r="S3" s="9"/>
-      <c r="T3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="5" t="s">
@@ -2411,116 +2476,118 @@
       <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="12">
         <v>2</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="12">
         <v>20000</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="7" t="s">
+      <c r="I4" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="J4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="L4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="L4" s="5"/>
       <c r="M4" s="5"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="1"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="15"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="12">
+        <v>3</v>
+      </c>
+      <c r="D5" s="12">
+        <v>15000</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="11">
+        <v>45610</v>
+      </c>
+      <c r="J5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="11">
-        <v>3</v>
-      </c>
-      <c r="D5" s="11">
-        <v>15000</v>
-      </c>
-      <c r="E5" s="6" t="s">
+      <c r="K5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H5" s="10">
-        <v>45610</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K5" s="6">
+      <c r="L5" s="6">
         <v>35000</v>
       </c>
-      <c r="L5" s="5"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="1"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="15"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="12">
         <v>1</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="12">
         <v>10000</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5" t="s">
+      <c r="E6" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="11">
+        <v>45612</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="10">
-        <v>45612</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="K6" s="6">
+      <c r="L6" s="6">
         <v>19000</v>
       </c>
-      <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
@@ -2529,30 +2596,31 @@
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="11">
+        <v>20</v>
+      </c>
+      <c r="C7" s="12">
         <v>3</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="12">
         <v>9000</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="1"/>
+      <c r="E7" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="2"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
@@ -2561,20 +2629,21 @@
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="5"/>
-      <c r="B8" s="10"/>
+      <c r="B8" s="11"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="2"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
@@ -2583,6 +2652,7 @@
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="5"/>
@@ -2590,15 +2660,15 @@
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H9" s="4"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" s="4"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="2"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
@@ -2607,72 +2677,78 @@
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="7" t="s">
+      <c r="F10" s="1"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="H10" s="12" t="s">
+      <c r="L10" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="I10" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="K10" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="L10" s="1"/>
       <c r="M10" s="1"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="10"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="E11" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="F11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="G11" s="5"/>
+      <c r="H11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="J11" s="6">
+        <v>1</v>
+      </c>
+      <c r="K11" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" s="10" t="s">
+      <c r="L11" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="I11" s="6">
-        <v>1</v>
-      </c>
-      <c r="J11" s="5"/>
-      <c r="K11" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
@@ -2681,40 +2757,43 @@
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="D12" s="12">
+        <v>10000</v>
+      </c>
+      <c r="E12" s="12">
+        <v>100</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="11">
-        <v>10000</v>
-      </c>
-      <c r="E12" s="11">
-        <v>100</v>
-      </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H12" s="10" t="s">
+      <c r="G12" s="5"/>
+      <c r="H12" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="I12" s="6">
+      <c r="J12" s="6">
         <v>2</v>
       </c>
-      <c r="J12" s="5" t="s">
+      <c r="K12" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="K12" s="6" t="s">
+      <c r="L12" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
@@ -2723,10 +2802,11 @@
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>43</v>
@@ -2734,19 +2814,21 @@
       <c r="C13" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="12">
         <v>5000</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="12">
         <v>200</v>
       </c>
-      <c r="F13" s="5"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="1"/>
+      <c r="F13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" s="5"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="2"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
@@ -2755,30 +2837,33 @@
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
       <c r="A14" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="11">
+        <v>47</v>
+      </c>
+      <c r="D14" s="12">
         <v>3000</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="12">
         <v>300</v>
       </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="1"/>
+      <c r="F14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G14" s="5"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="2"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
@@ -2787,22 +2872,23 @@
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
       <c r="A15" s="1"/>
       <c r="B15" s="5"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H15" s="4"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I15" s="4"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="2"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
@@ -2811,30 +2897,31 @@
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
       <c r="A16" s="1"/>
       <c r="B16" s="5"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
       <c r="E16" s="6"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H16" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="I16" s="8" t="s">
+      <c r="F16" s="1"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="J16" s="7" t="s">
+      <c r="I16" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="K16" s="8" t="s">
+      <c r="J16" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="L16" s="1"/>
+      <c r="K16" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L16" s="8" t="s">
+        <v>54</v>
+      </c>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
@@ -2843,32 +2930,33 @@
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
       <c r="A17" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="2"/>
       <c r="D17" s="3"/>
       <c r="E17" s="2"/>
       <c r="F17" s="1"/>
-      <c r="G17" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H17" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="I17" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="J17" s="5" t="s">
+      <c r="G17" s="1"/>
+      <c r="H17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="K17" s="6" t="s">
+      <c r="J17" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="L17" s="1"/>
+      <c r="K17" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="L17" s="6" t="s">
+        <v>59</v>
+      </c>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
@@ -2877,38 +2965,39 @@
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
       <c r="A18" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="1"/>
-      <c r="G18" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H18" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="I18" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="J18" s="5" t="s">
+      <c r="G18" s="1"/>
+      <c r="H18" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I18" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="K18" s="6" t="s">
+      <c r="J18" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="L18" s="1"/>
+      <c r="K18" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="L18" s="6" t="s">
+        <v>67</v>
+      </c>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
@@ -2917,16 +3006,17 @@
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
       <c r="A19" s="5" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>42</v>
@@ -2934,11 +3024,11 @@
       <c r="E19" s="2"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="2"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
@@ -2947,28 +3037,29 @@
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
       <c r="A20" s="5" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="D20" s="14" t="s">
         <v>70</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>72</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="2"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
@@ -2977,28 +3068,29 @@
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
       <c r="A21" s="5" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="2"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
@@ -3007,20 +3099,21 @@
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
       <c r="A22" s="1"/>
       <c r="B22" s="5"/>
       <c r="C22" s="6"/>
-      <c r="D22" s="11"/>
+      <c r="D22" s="12"/>
       <c r="E22" s="2"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="2"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
@@ -3029,6 +3122,7 @@
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
